--- a/output/fit_clients/fit_round_471.xlsx
+++ b/output/fit_clients/fit_round_471.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1675742142.084803</v>
+        <v>2028937247.714715</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09016792328962439</v>
+        <v>0.09697953799040103</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03185724515203057</v>
+        <v>0.03574336933306158</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>837871023.1049778</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1964539289.821543</v>
+        <v>1682221773.808353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1267982227546416</v>
+        <v>0.1411234974042103</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0307990354773373</v>
+        <v>0.03292746048775474</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>982269679.4961133</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5030359139.922094</v>
+        <v>4242772173.831467</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1241818360225095</v>
+        <v>0.1197154655591945</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03514882052331313</v>
+        <v>0.02662245815630919</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>170</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2515179657.146501</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3600916325.540982</v>
+        <v>4166323929.11005</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1072944251362376</v>
+        <v>0.0906688943045833</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03332888214163787</v>
+        <v>0.03398839751607593</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>174</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1800458192.893507</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2451682697.419866</v>
+        <v>2743865239.751114</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1343484572733573</v>
+        <v>0.1292873617491806</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05315201213864108</v>
+        <v>0.04618831473385724</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1225841329.442571</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2153016083.079107</v>
+        <v>2059013242.10917</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08030977788512027</v>
+        <v>0.07594642538650434</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04544557175996671</v>
+        <v>0.03217790080828197</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>148</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1076508087.95426</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2626120875.778698</v>
+        <v>2678577917.256078</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1859061112182104</v>
+        <v>0.1735764848801144</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02400009204373613</v>
+        <v>0.02141084930400493</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>150</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1313060457.204402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2025834699.478477</v>
+        <v>2117197936.404303</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1209939345603118</v>
+        <v>0.1547392282899134</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02549851281584749</v>
+        <v>0.0347944405823048</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1012917372.779567</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3990922905.128065</v>
+        <v>5178810295.674454</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1959944085256537</v>
+        <v>0.1445412036438466</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03465913273207692</v>
+        <v>0.0371770192125808</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>198</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1995461473.755678</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3008255264.588222</v>
+        <v>3449453266.665538</v>
       </c>
       <c r="F11" t="n">
-        <v>0.177298205343997</v>
+        <v>0.1197261223264556</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03165987362308571</v>
+        <v>0.04255548244756515</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>195</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1504127575.817712</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3141224388.877064</v>
+        <v>3277262091.48122</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1325610372898556</v>
+        <v>0.1582126519685521</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03919100215711991</v>
+        <v>0.05397745188969686</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>159</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1570612225.393004</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4843585632.03355</v>
+        <v>3723432037.213538</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07436670806883003</v>
+        <v>0.08160865891647638</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02603917936392271</v>
+        <v>0.01906109557101996</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>159</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2421792828.11932</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3289735400.752392</v>
+        <v>3377697581.507863</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1312720181805814</v>
+        <v>0.1824265366802896</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03630513570271993</v>
+        <v>0.03457783334924434</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>151</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1644867713.855288</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1180532904.589966</v>
+        <v>1506664085.208196</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09411501844242065</v>
+        <v>0.07968382569002777</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04319790023564282</v>
+        <v>0.03584031683877625</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>590266465.3835657</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2572621212.37691</v>
+        <v>1813639924.988679</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1124251612632281</v>
+        <v>0.08711797943485106</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03947208101735429</v>
+        <v>0.04462603430144933</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>96</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1286310630.552012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3465731327.468532</v>
+        <v>3298504703.305951</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1078782724493496</v>
+        <v>0.1441506558381732</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03653836395090831</v>
+        <v>0.04533856461819664</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>137</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1732865724.769034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3845071579.628393</v>
+        <v>3119229349.0476</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1569163944230667</v>
+        <v>0.1492292451432073</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02703836754808954</v>
+        <v>0.03407336602290537</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>155</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1922535758.883291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1315346288.805915</v>
+        <v>848372023.1129062</v>
       </c>
       <c r="F19" t="n">
-        <v>0.147998164397084</v>
+        <v>0.1259508947528016</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02023541608495143</v>
+        <v>0.02677548180134981</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>657673250.4244527</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2809497434.136755</v>
+        <v>2396520678.848677</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1556771496886383</v>
+        <v>0.1416490163117838</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02818026675073178</v>
+        <v>0.02546050674605613</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1404748657.210557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1810197701.13207</v>
+        <v>2728001234.296524</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07973432766109345</v>
+        <v>0.06176104211209462</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0321810353270512</v>
+        <v>0.03761067811476335</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>905098904.6730354</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3670644491.556328</v>
+        <v>3218122230.282881</v>
       </c>
       <c r="F22" t="n">
-        <v>0.124394293824864</v>
+        <v>0.1306567451634817</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03564945266939631</v>
+        <v>0.03882571871617097</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1835322267.172834</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1284459317.641389</v>
+        <v>1356879148.392855</v>
       </c>
       <c r="F23" t="n">
-        <v>0.113575285237018</v>
+        <v>0.1821803562306376</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04100265593900774</v>
+        <v>0.04081221008550054</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>642229681.1192029</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3418305525.762396</v>
+        <v>3496361189.055051</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1026432811282895</v>
+        <v>0.1058712713240665</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03179571733629578</v>
+        <v>0.03420508665931939</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>137</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1709152769.998904</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1310259600.868409</v>
+        <v>1204743518.611655</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1067025191714586</v>
+        <v>0.07926496187658896</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02200705174944283</v>
+        <v>0.03002121556729809</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>655129793.0482402</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1417081294.367085</v>
+        <v>1003747958.542984</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1055541278596796</v>
+        <v>0.1248825790686755</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03185401062625189</v>
+        <v>0.03414135234446402</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>708540721.3739078</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3697107609.101962</v>
+        <v>3803828099.922347</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1074588879314867</v>
+        <v>0.1519072455249674</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02599261942885189</v>
+        <v>0.01890782898458859</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>116</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1848553829.791815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2342889843.607364</v>
+        <v>3482973635.047841</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1459192598359599</v>
+        <v>0.1394302767503502</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03770592492468967</v>
+        <v>0.03614182554955364</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1171444875.995196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5933960243.648977</v>
+        <v>4596690539.211885</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1211074834307769</v>
+        <v>0.1512443022610443</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03049787747604326</v>
+        <v>0.03034319487633542</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>208</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2966980004.666322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2012364640.571874</v>
+        <v>1644872793.523393</v>
       </c>
       <c r="F30" t="n">
-        <v>0.13345825857445</v>
+        <v>0.08979447520462563</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02694635950233835</v>
+        <v>0.02899319683626156</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1006182359.174734</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1400692369.642864</v>
+        <v>1397657928.952456</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07257844603465463</v>
+        <v>0.0799037440862896</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03162055984879263</v>
+        <v>0.04012930895599968</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>700346089.0724608</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1484520680.734939</v>
+        <v>1384503453.684675</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09107912715059557</v>
+        <v>0.119911525444394</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03134321623944164</v>
+        <v>0.03776374630586225</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>742260405.5394639</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2486575400.161022</v>
+        <v>1975091266.90158</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1625224581339829</v>
+        <v>0.1488070207039553</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05418816304793058</v>
+        <v>0.05846301293484844</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1243287739.476092</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1404770518.452078</v>
+        <v>1312698956.935828</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1178502761499496</v>
+        <v>0.116353770391745</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02368229042706524</v>
+        <v>0.02189697964761998</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>702385230.703464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1265564762.606642</v>
+        <v>852689565.3599771</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09129258833493945</v>
+        <v>0.1182424535970742</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03675316771074496</v>
+        <v>0.03118993441317164</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>632782341.6693597</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2553584504.620556</v>
+        <v>2127733915.634126</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1740436862849084</v>
+        <v>0.1665163572933407</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02071144203120354</v>
+        <v>0.02596054989690192</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>118</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1276792270.030617</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2867796020.22732</v>
+        <v>2197771335.139236</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09816484434484374</v>
+        <v>0.09645642909233414</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03243666359468885</v>
+        <v>0.03040387522273671</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>126</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1433898156.818205</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1345113612.117152</v>
+        <v>2193416742.498228</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1112439733000202</v>
+        <v>0.08491524344434322</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03861894115783312</v>
+        <v>0.03329161818934099</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>672556877.2129252</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2176736021.544172</v>
+        <v>1485211766.33439</v>
       </c>
       <c r="F39" t="n">
-        <v>0.175190757031311</v>
+        <v>0.1561577588678265</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02523602382318353</v>
+        <v>0.02211608573970268</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1088367978.536344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1651448045.725998</v>
+        <v>1700796427.590364</v>
       </c>
       <c r="F40" t="n">
-        <v>0.125715617116982</v>
+        <v>0.1283811172490951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04268186727719268</v>
+        <v>0.04249668827351064</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>825723951.1569464</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2863731300.076407</v>
+        <v>2728076450.376812</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1370943405852953</v>
+        <v>0.1530586867030434</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04538437639570506</v>
+        <v>0.03224862672146672</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>113</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1431865639.708535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3974591739.697864</v>
+        <v>3307787085.906348</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1005094111008827</v>
+        <v>0.1029246631513446</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03301646615615845</v>
+        <v>0.03917469470449896</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>155</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1987295897.381221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2576313486.757891</v>
+        <v>1890825526.526648</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1474928066241391</v>
+        <v>0.1556636977352083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02212593939855274</v>
+        <v>0.02355645420139529</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>164</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1288156784.377077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2043936652.02417</v>
+        <v>1456719140.116962</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09069827069087114</v>
+        <v>0.07853706306082434</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03521882010721981</v>
+        <v>0.03554634843435829</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1021968441.128732</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1569639486.341843</v>
+        <v>1936974433.860218</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1547828766708696</v>
+        <v>0.140198659696986</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03978094875800679</v>
+        <v>0.04953043962722052</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>784819690.6702085</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5120920496.296326</v>
+        <v>5153306976.109903</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1114398359189792</v>
+        <v>0.1469600632947578</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04318854266966835</v>
+        <v>0.04496095111634005</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>167</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2560460281.875507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4440987126.096658</v>
+        <v>4418584606.09778</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1599780109508297</v>
+        <v>0.1253899784653459</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04816801330010582</v>
+        <v>0.04647598530211163</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2220493587.18242</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4484129064.028563</v>
+        <v>4122064254.056638</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08417933427160471</v>
+        <v>0.1040650412237359</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02722722328547082</v>
+        <v>0.02959819195411309</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>153</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2242064538.298202</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1657307771.644848</v>
+        <v>1694043553.530653</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1716377968742314</v>
+        <v>0.1226513815456802</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03146583642489217</v>
+        <v>0.02815443422739653</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>828653893.4237391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3091234984.260809</v>
+        <v>3224076912.697372</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1344179435839544</v>
+        <v>0.1144914134457276</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0412677934638104</v>
+        <v>0.04656051580563776</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>160</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1545617545.492329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>982665181.8071073</v>
+        <v>1252752320.551714</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1569460352397695</v>
+        <v>0.1742860115516618</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05363344960772576</v>
+        <v>0.03780253397833169</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>491332677.7046538</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3611523136.595677</v>
+        <v>3936436463.324145</v>
       </c>
       <c r="F52" t="n">
-        <v>0.117896033374001</v>
+        <v>0.09924408274298893</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05851578668786851</v>
+        <v>0.03802438046801453</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>194</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1805761647.664454</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2485022343.72948</v>
+        <v>3076469358.896476</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1740554554840631</v>
+        <v>0.2043072032390026</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02214428019210236</v>
+        <v>0.02527446620877999</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>135</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1242511239.899363</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4232837998.701364</v>
+        <v>3890197067.756628</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1373492338721</v>
+        <v>0.1462632397753818</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04797367103595147</v>
+        <v>0.03561504866552344</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>152</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2116419081.74112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4922904648.901974</v>
+        <v>3361753008.719672</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1559398205860583</v>
+        <v>0.1357075204997645</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02060948517020087</v>
+        <v>0.03027197581946737</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2461452340.140931</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1722113306.909985</v>
+        <v>1418974112.648081</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1497520794687184</v>
+        <v>0.1608615172539983</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03836005794059959</v>
+        <v>0.05048744628136926</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>861056662.8201395</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2906996416.876341</v>
+        <v>3052564567.964309</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1493486858401165</v>
+        <v>0.1219967494868368</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02304475421515594</v>
+        <v>0.02094447039682321</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>149</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1453498205.055115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1804539707.83012</v>
+        <v>1404860528.344131</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1981932982939024</v>
+        <v>0.1359258828626867</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02763408307316559</v>
+        <v>0.02750098270028861</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>902269857.2773039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4147906466.642646</v>
+        <v>4668337562.141118</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09498879282057822</v>
+        <v>0.09140316415053637</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04189396328775328</v>
+        <v>0.04115260142877227</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2073953202.140801</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2480694173.138896</v>
+        <v>2830417328.738833</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1992237749533937</v>
+        <v>0.1256078680800071</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02655319707293294</v>
+        <v>0.02510376769913639</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>147</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1240347102.471017</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2426655400.653622</v>
+        <v>2995444146.391096</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1090841774601013</v>
+        <v>0.1759099640900615</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0315048054764944</v>
+        <v>0.03269111819140335</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>161</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1213327734.885456</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1432334561.748999</v>
+        <v>1967711145.50214</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1489060122840268</v>
+        <v>0.19187908326738</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04598612206984581</v>
+        <v>0.03037643318232482</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>716167253.7748909</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4190163999.928438</v>
+        <v>5017701456.13306</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09162819045434707</v>
+        <v>0.08684484425154401</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02949740568045984</v>
+        <v>0.03255380948511653</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2095082053.872293</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5229304105.111354</v>
+        <v>4032351838.245692</v>
       </c>
       <c r="F64" t="n">
-        <v>0.163650891528841</v>
+        <v>0.187111795192488</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03038644224898608</v>
+        <v>0.02646123065903862</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>146</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2614652174.909132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5697573070.099203</v>
+        <v>4320413285.299062</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1370196745774079</v>
+        <v>0.1115450610587494</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02033069082883842</v>
+        <v>0.02686206907742713</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>169</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2848786452.351442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3722282870.932627</v>
+        <v>5432013682.594097</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1201931072015422</v>
+        <v>0.1096760566791093</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05102895733584315</v>
+        <v>0.04883557147580053</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>138</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1861141394.195166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3361675396.659276</v>
+        <v>2109242710.868034</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0933539506341953</v>
+        <v>0.09813518842386028</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04122760596855213</v>
+        <v>0.04017504357270579</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>151</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1680837685.993434</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3773326459.608576</v>
+        <v>4357687334.870548</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1235245814148078</v>
+        <v>0.1434671754901826</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04167052914434272</v>
+        <v>0.04608578699203119</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>151</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1886663211.891385</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1960334363.186209</v>
+        <v>1722734749.844353</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1447336960233479</v>
+        <v>0.1552558315227943</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04377746447568826</v>
+        <v>0.05938337964001866</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>980167181.4684013</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3209908865.926399</v>
+        <v>2359380700.320148</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08523280080349563</v>
+        <v>0.06273916947928429</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04229726066050919</v>
+        <v>0.04472830790829475</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>134</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1604954423.593621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5648858804.481883</v>
+        <v>4238301598.958246</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1842687574839695</v>
+        <v>0.1459465027989663</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02267752793667048</v>
+        <v>0.03062908773073221</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>171</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2824429556.395451</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2216565124.600083</v>
+        <v>1771540211.287043</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1067317673090889</v>
+        <v>0.09299516250807871</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05172702749498239</v>
+        <v>0.04896008973888779</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1108282473.747119</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2564303522.276687</v>
+        <v>2273204907.301911</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07543660163280859</v>
+        <v>0.09074623674695508</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04608149147985183</v>
+        <v>0.03424901800442368</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>178</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1282151797.048016</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2866354894.54654</v>
+        <v>3904211630.752976</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1445857830174252</v>
+        <v>0.1418379073544731</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02994950426280069</v>
+        <v>0.03359388954651395</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>160</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1433177524.244955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2215674316.809512</v>
+        <v>1831884663.469865</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1452496804939623</v>
+        <v>0.1527241586322718</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02388882767337932</v>
+        <v>0.03751286402409246</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1107837102.393983</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3930946727.021235</v>
+        <v>4694778185.796189</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07832972983349948</v>
+        <v>0.1140686035996247</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02105903472758148</v>
+        <v>0.02977176897592235</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1965473345.366958</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1549247188.54957</v>
+        <v>1853074031.02471</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1626444611932051</v>
+        <v>0.1314717174141767</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02888530803540129</v>
+        <v>0.02228247920521358</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>774623589.283325</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3932975780.261915</v>
+        <v>4418491972.419519</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1130242881057603</v>
+        <v>0.09394281351909924</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05237007011973675</v>
+        <v>0.04315171974585143</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>164</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1966487860.683815</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1420458902.767198</v>
+        <v>1750338673.663923</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1221379481598147</v>
+        <v>0.1709758388493177</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02473061481272906</v>
+        <v>0.03999986497702967</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>710229471.6671762</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4485185886.751185</v>
+        <v>5268956563.110733</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09933351963538738</v>
+        <v>0.1070399237086022</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02731036419955963</v>
+        <v>0.03381166863632497</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2242592966.997743</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5114356563.949897</v>
+        <v>4268801643.213382</v>
       </c>
       <c r="F81" t="n">
-        <v>0.117622710736729</v>
+        <v>0.1036012870890323</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03240610997161159</v>
+        <v>0.02520903645776789</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2557178286.565066</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4681106490.781007</v>
+        <v>3539222842.296298</v>
       </c>
       <c r="F82" t="n">
-        <v>0.193019171501618</v>
+        <v>0.1963385370051524</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02831468100608442</v>
+        <v>0.01947658281337178</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>165</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2340553247.141428</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1564525345.913166</v>
+        <v>2096526750.81869</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1427304604914729</v>
+        <v>0.127746726318647</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02840124131037651</v>
+        <v>0.03444114733224663</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>782262604.0903594</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1915312202.451957</v>
+        <v>2088582539.873302</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1077151778795455</v>
+        <v>0.1051521722858716</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04446031793777873</v>
+        <v>0.048085264183419</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>957656118.627774</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3535571447.600372</v>
+        <v>3441642432.727905</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1138440255713382</v>
+        <v>0.1211410908701221</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04795390749697861</v>
+        <v>0.037345156597995</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>176</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1767785843.126749</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1879184854.956535</v>
+        <v>1821949530.227789</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1617733838467987</v>
+        <v>0.1261149714433047</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01833101484990055</v>
+        <v>0.02062541437770035</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>939592438.3301593</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>999236700.4143003</v>
+        <v>915852537.2923337</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1644308226278526</v>
+        <v>0.1407976053784424</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0407754775326411</v>
+        <v>0.03125723215003894</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>499618354.3765776</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3643738342.627456</v>
+        <v>2420828036.624934</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1580438360355464</v>
+        <v>0.1754781707628364</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03055238572351624</v>
+        <v>0.03123903853182965</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>187</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1821869265.394648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2882324736.838748</v>
+        <v>3115929554.142889</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1310370965361858</v>
+        <v>0.1122753184564589</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02790143708510076</v>
+        <v>0.03827406005563695</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>160</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1441162415.169394</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1818816623.160336</v>
+        <v>1367426047.950472</v>
       </c>
       <c r="F90" t="n">
-        <v>0.136986736183052</v>
+        <v>0.1004857872883919</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03870905009532471</v>
+        <v>0.05321328818199142</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>909408348.6576662</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1688001964.756131</v>
+        <v>1784643250.158996</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1884123833592292</v>
+        <v>0.1873967824820534</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04782560857220237</v>
+        <v>0.04083965757990751</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>844000996.2372009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2503584079.622159</v>
+        <v>2932102390.611385</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06878920432601865</v>
+        <v>0.07238401481497704</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0365380884470068</v>
+        <v>0.0441293863760782</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1251792024.030814</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4658939567.013321</v>
+        <v>4632538691.007355</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1130925152900594</v>
+        <v>0.09530218021656574</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03930483487094277</v>
+        <v>0.04250172080051791</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2329469741.551213</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2062938338.532909</v>
+        <v>2269765034.671743</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1097331768146807</v>
+        <v>0.139801081330834</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02626630728583036</v>
+        <v>0.03232717113849743</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1031469175.815521</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2050903261.820022</v>
+        <v>3017546596.865909</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08768048621162022</v>
+        <v>0.1352944133164829</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05271201109564241</v>
+        <v>0.03238614396632062</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1025451699.716346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1471887233.072788</v>
+        <v>1646449416.30544</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1401421053908896</v>
+        <v>0.08809746037627326</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03616051242239327</v>
+        <v>0.04318857272891548</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>735943659.9045146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3284575297.604718</v>
+        <v>3420537415.951905</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1189677619626834</v>
+        <v>0.1453146420092989</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02915315795329955</v>
+        <v>0.0186082507315279</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>152</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1642287647.660398</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2608672761.867456</v>
+        <v>3819775336.767658</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1234355647360606</v>
+        <v>0.1192912739179122</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03026229573414233</v>
+        <v>0.02217497343269957</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1304336339.096173</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2283090216.994715</v>
+        <v>2491043881.26107</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1308579404639749</v>
+        <v>0.1211482498255643</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02809687217804377</v>
+        <v>0.02551242287124291</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>148</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1141545042.535949</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2911667028.624204</v>
+        <v>3967546310.967214</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1622464906165098</v>
+        <v>0.1756760171971442</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02044170381370894</v>
+        <v>0.01722464197375595</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>144</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1455833498.131318</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2289297637.077426</v>
+        <v>2918176546.800681</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2171525195243617</v>
+        <v>0.178659309225165</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03869769657363185</v>
+        <v>0.04051522782355585</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>193</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1144648813.738367</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_471.xlsx
+++ b/output/fit_clients/fit_round_471.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2028937247.714715</v>
+        <v>1871091499.647945</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09697953799040103</v>
+        <v>0.08505401899935829</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03574336933306158</v>
+        <v>0.04007773716386109</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1682221773.808353</v>
+        <v>1634287108.029028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1411234974042103</v>
+        <v>0.1810470809129897</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03292746048775474</v>
+        <v>0.03402536505211105</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4242772173.831467</v>
+        <v>5097704594.548342</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1197154655591945</v>
+        <v>0.1308667028428567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02662245815630919</v>
+        <v>0.0363050791101252</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4166323929.11005</v>
+        <v>3628247389.286412</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0906688943045833</v>
+        <v>0.06814418425374394</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03398839751607593</v>
+        <v>0.04494467491579853</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2743865239.751114</v>
+        <v>1888081238.249601</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1292873617491806</v>
+        <v>0.1124927875713961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04618831473385724</v>
+        <v>0.03447711910413549</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2059013242.10917</v>
+        <v>2008041834.566253</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07594642538650434</v>
+        <v>0.08364546722351614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03217790080828197</v>
+        <v>0.03684992428897343</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2678577917.256078</v>
+        <v>2710875861.563301</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1735764848801144</v>
+        <v>0.2010307425072029</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02141084930400493</v>
+        <v>0.03247417796289544</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2117197936.404303</v>
+        <v>1692942734.154667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1547392282899134</v>
+        <v>0.1744020232791597</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0347944405823048</v>
+        <v>0.02625684954023174</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5178810295.674454</v>
+        <v>5262000945.835629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1445412036438466</v>
+        <v>0.1335049312770721</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0371770192125808</v>
+        <v>0.04101959576671936</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3449453266.665538</v>
+        <v>2821218381.152323</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1197261223264556</v>
+        <v>0.120684347184457</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04255548244756515</v>
+        <v>0.04958935888393997</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3277262091.48122</v>
+        <v>2142219551.386126</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1582126519685521</v>
+        <v>0.176722388374586</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05397745188969686</v>
+        <v>0.04308928039230249</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3723432037.213538</v>
+        <v>3297807289.97567</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08160865891647638</v>
+        <v>0.07422112343701455</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01906109557101996</v>
+        <v>0.03054097765634873</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3377697581.507863</v>
+        <v>2820978035.852788</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1824265366802896</v>
+        <v>0.1843530028138613</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03457783334924434</v>
+        <v>0.02754439993469779</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1506664085.208196</v>
+        <v>1671725033.183718</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07968382569002777</v>
+        <v>0.08072529398695111</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03584031683877625</v>
+        <v>0.04469487174369056</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1813639924.988679</v>
+        <v>2516446383.702871</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08711797943485106</v>
+        <v>0.1064010413542398</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04462603430144933</v>
+        <v>0.03345281315694956</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3298504703.305951</v>
+        <v>4915346947.405422</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1441506558381732</v>
+        <v>0.1438021437475759</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04533856461819664</v>
+        <v>0.04403093706308105</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3119229349.0476</v>
+        <v>3326305223.421208</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1492292451432073</v>
+        <v>0.1747572167747243</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03407336602290537</v>
+        <v>0.03190741941856148</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>848372023.1129062</v>
+        <v>853925685.5476543</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1259508947528016</v>
+        <v>0.1754147549551668</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02677548180134981</v>
+        <v>0.02035985132051262</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2396520678.848677</v>
+        <v>2174166847.606912</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1416490163117838</v>
+        <v>0.1340612242441444</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02546050674605613</v>
+        <v>0.03105592322855302</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2728001234.296524</v>
+        <v>2569076546.532443</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06176104211209462</v>
+        <v>0.07194276506735564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03761067811476335</v>
+        <v>0.02906899107307591</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3218122230.282881</v>
+        <v>3194211506.031368</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1306567451634817</v>
+        <v>0.1086025470895266</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03882571871617097</v>
+        <v>0.03610238151271725</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1356879148.392855</v>
+        <v>1071397726.33808</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1821803562306376</v>
+        <v>0.1671064999775816</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04081221008550054</v>
+        <v>0.0443870085146551</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3496361189.055051</v>
+        <v>3822548866.099278</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1058712713240665</v>
+        <v>0.1071761620921717</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03420508665931939</v>
+        <v>0.03686217333911303</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1204743518.611655</v>
+        <v>1207011777.595213</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07926496187658896</v>
+        <v>0.08382264153928286</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03002121556729809</v>
+        <v>0.02883151911208363</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1003747958.542984</v>
+        <v>1147160972.194419</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1248825790686755</v>
+        <v>0.08671229999460098</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03414135234446402</v>
+        <v>0.0287291366980384</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3803828099.922347</v>
+        <v>3194976002.473906</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1519072455249674</v>
+        <v>0.09987979019774154</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01890782898458859</v>
+        <v>0.02221330797788279</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3482973635.047841</v>
+        <v>2624765739.423913</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1394302767503502</v>
+        <v>0.1286774842189926</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03614182554955364</v>
+        <v>0.03927185018121897</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4596690539.211885</v>
+        <v>4404146217.35199</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1512443022610443</v>
+        <v>0.09405474789630684</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03034319487633542</v>
+        <v>0.03828099079480021</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1644872793.523393</v>
+        <v>2122081322.669042</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08979447520462563</v>
+        <v>0.1249516177125178</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02899319683626156</v>
+        <v>0.03539855273503254</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1397657928.952456</v>
+        <v>1106743796.521714</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0799037440862896</v>
+        <v>0.09321128196118553</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04012930895599968</v>
+        <v>0.03763883788954067</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1384503453.684675</v>
+        <v>1577339333.265053</v>
       </c>
       <c r="F32" t="n">
-        <v>0.119911525444394</v>
+        <v>0.1035578477237086</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03776374630586225</v>
+        <v>0.03372819142683717</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1975091266.90158</v>
+        <v>2701145799.275192</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1488070207039553</v>
+        <v>0.1670866292266839</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05846301293484844</v>
+        <v>0.04363902688924778</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1312698956.935828</v>
+        <v>1410817292.989588</v>
       </c>
       <c r="F34" t="n">
-        <v>0.116353770391745</v>
+        <v>0.1063801134367746</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02189697964761998</v>
+        <v>0.02600975270569759</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>852689565.3599771</v>
+        <v>1280913039.472296</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1182424535970742</v>
+        <v>0.09900205060128876</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03118993441317164</v>
+        <v>0.0374039972745331</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2127733915.634126</v>
+        <v>2799235556.964338</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1665163572933407</v>
+        <v>0.1308113868609052</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02596054989690192</v>
+        <v>0.02088822436060954</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2197771335.139236</v>
+        <v>2863219736.078265</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09645642909233414</v>
+        <v>0.097937822510081</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03040387522273671</v>
+        <v>0.04041262260831874</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2193416742.498228</v>
+        <v>2096649804.973016</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08491524344434322</v>
+        <v>0.1221740299092518</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03329161818934099</v>
+        <v>0.02553431203820242</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1485211766.33439</v>
+        <v>1863057544.024097</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1561577588678265</v>
+        <v>0.1479832091931613</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02211608573970268</v>
+        <v>0.0301129472735957</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1700796427.590364</v>
+        <v>1251414115.397491</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1283811172490951</v>
+        <v>0.16281755185131</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04249668827351064</v>
+        <v>0.05919315510338218</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2728076450.376812</v>
+        <v>2249327110.093363</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1530586867030434</v>
+        <v>0.1316658228194572</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03224862672146672</v>
+        <v>0.04718396749751051</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3307787085.906348</v>
+        <v>3411996588.892776</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1029246631513446</v>
+        <v>0.08952730100558291</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03917469470449896</v>
+        <v>0.0322506574974341</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1890825526.526648</v>
+        <v>2915892779.788863</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1556636977352083</v>
+        <v>0.1387306644547036</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02355645420139529</v>
+        <v>0.01753631729606211</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1456719140.116962</v>
+        <v>1472810126.165803</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07853706306082434</v>
+        <v>0.07877847844395917</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03554634843435829</v>
+        <v>0.02343475288408566</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1936974433.860218</v>
+        <v>1705235055.402948</v>
       </c>
       <c r="F45" t="n">
-        <v>0.140198659696986</v>
+        <v>0.1459339612789185</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04953043962722052</v>
+        <v>0.03984779856008364</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5153306976.109903</v>
+        <v>5195118568.610044</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1469600632947578</v>
+        <v>0.1584926484879873</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04496095111634005</v>
+        <v>0.05615344649376211</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4418584606.09778</v>
+        <v>3635799844.961533</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1253899784653459</v>
+        <v>0.1890172162248551</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04647598530211163</v>
+        <v>0.05435524997316673</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4122064254.056638</v>
+        <v>4021021124.521745</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1040650412237359</v>
+        <v>0.09622812027944648</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02959819195411309</v>
+        <v>0.02818041475705753</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1694043553.530653</v>
+        <v>1281151721.699958</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1226513815456802</v>
+        <v>0.1702490547975412</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02815443422739653</v>
+        <v>0.0407613673918548</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3224076912.697372</v>
+        <v>2818755314.005672</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1144914134457276</v>
+        <v>0.1238115848559661</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04656051580563776</v>
+        <v>0.04769822894776269</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1252752320.551714</v>
+        <v>1492547271.945298</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1742860115516618</v>
+        <v>0.1508173444910807</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03780253397833169</v>
+        <v>0.04959580582099356</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3936436463.324145</v>
+        <v>4787448787.935186</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09924408274298893</v>
+        <v>0.1179023952288394</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03802438046801453</v>
+        <v>0.04349098152953526</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3076469358.896476</v>
+        <v>3079699555.653485</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2043072032390026</v>
+        <v>0.2027905914647274</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02527446620877999</v>
+        <v>0.02152547762701637</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3890197067.756628</v>
+        <v>4910587221.548905</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1462632397753818</v>
+        <v>0.1262906109524055</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03561504866552344</v>
+        <v>0.04656833259187127</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3361753008.719672</v>
+        <v>3249779569.700246</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1357075204997645</v>
+        <v>0.2156074232191022</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03027197581946737</v>
+        <v>0.0280057203570661</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1418974112.648081</v>
+        <v>1401507368.362397</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1608615172539983</v>
+        <v>0.1134157066920534</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05048744628136926</v>
+        <v>0.05421265750134446</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3052564567.964309</v>
+        <v>2808896357.436521</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1219967494868368</v>
+        <v>0.116764120300287</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02094447039682321</v>
+        <v>0.01998777758820726</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1404860528.344131</v>
+        <v>1790095907.404441</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1359258828626867</v>
+        <v>0.1751560736574877</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02750098270028861</v>
+        <v>0.03319883523653476</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4668337562.141118</v>
+        <v>4200780498.423361</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09140316415053637</v>
+        <v>0.1210818057230709</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04115260142877227</v>
+        <v>0.03829582341355904</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2830417328.738833</v>
+        <v>3611160939.350222</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1256078680800071</v>
+        <v>0.1993154268127368</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02510376769913639</v>
+        <v>0.03297512036502078</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2995444146.391096</v>
+        <v>2800153798.448965</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1759099640900615</v>
+        <v>0.175805598080481</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03269111819140335</v>
+        <v>0.0243226974203574</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1967711145.50214</v>
+        <v>1743829974.919173</v>
       </c>
       <c r="F62" t="n">
-        <v>0.19187908326738</v>
+        <v>0.1557890748789416</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03037643318232482</v>
+        <v>0.04814188987449015</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5017701456.13306</v>
+        <v>5288329053.668451</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08684484425154401</v>
+        <v>0.1016941986922597</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03255380948511653</v>
+        <v>0.04294842385284384</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4032351838.245692</v>
+        <v>4735359150.844769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.187111795192488</v>
+        <v>0.1682685907066944</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02646123065903862</v>
+        <v>0.02215068190610353</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4320413285.299062</v>
+        <v>3680656482.198857</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1115450610587494</v>
+        <v>0.157727317734341</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02686206907742713</v>
+        <v>0.02470509399460276</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5432013682.594097</v>
+        <v>5248003771.192759</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1096760566791093</v>
+        <v>0.1132131293574307</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04883557147580053</v>
+        <v>0.0336694451775662</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2109242710.868034</v>
+        <v>2847534154.342735</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09813518842386028</v>
+        <v>0.07949455902931521</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04017504357270579</v>
+        <v>0.03573489214524406</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4357687334.870548</v>
+        <v>4264104883.307014</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1434671754901826</v>
+        <v>0.1098872794160376</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04608578699203119</v>
+        <v>0.04290564975526615</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1722734749.844353</v>
+        <v>1685398749.845298</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1552558315227943</v>
+        <v>0.1790415631232398</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05938337964001866</v>
+        <v>0.0494982481504762</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2359380700.320148</v>
+        <v>2408935250.748925</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06273916947928429</v>
+        <v>0.07388596938502304</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04472830790829475</v>
+        <v>0.04603932097645048</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4238301598.958246</v>
+        <v>5571505875.617074</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1459465027989663</v>
+        <v>0.1665752516263317</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03062908773073221</v>
+        <v>0.02383718639503214</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1771540211.287043</v>
+        <v>1369763132.166065</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09299516250807871</v>
+        <v>0.1060093685277698</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04896008973888779</v>
+        <v>0.04615701724754625</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2273204907.301911</v>
+        <v>2595480049.356897</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09074623674695508</v>
+        <v>0.1066112110858403</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03424901800442368</v>
+        <v>0.03219999628605705</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3904211630.752976</v>
+        <v>3902914214.537483</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1418379073544731</v>
+        <v>0.1556833731689747</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03359388954651395</v>
+        <v>0.03485532990076522</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1831884663.469865</v>
+        <v>1989152079.627719</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1527241586322718</v>
+        <v>0.1135211159058038</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03751286402409246</v>
+        <v>0.03763868932662281</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4694778185.796189</v>
+        <v>4279169451.337892</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1140686035996247</v>
+        <v>0.1022477176111438</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02977176897592235</v>
+        <v>0.03424991842029274</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1853074031.02471</v>
+        <v>2237051526.584036</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1314717174141767</v>
+        <v>0.1189667176775435</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02228247920521358</v>
+        <v>0.02160811327872478</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4418491972.419519</v>
+        <v>4641158964.916985</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09394281351909924</v>
+        <v>0.1195769712824776</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04315171974585143</v>
+        <v>0.04805660811486281</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1750338673.663923</v>
+        <v>1675040453.932244</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1709758388493177</v>
+        <v>0.1512844070805832</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03999986497702967</v>
+        <v>0.02513988850925814</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5268956563.110733</v>
+        <v>4848863223.077241</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1070399237086022</v>
+        <v>0.07601246554286159</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03381166863632497</v>
+        <v>0.02585717351537207</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4268801643.213382</v>
+        <v>4811225867.599611</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1036012870890323</v>
+        <v>0.09376318544432886</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02520903645776789</v>
+        <v>0.03071376842559576</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3539222842.296298</v>
+        <v>3807809451.768411</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1963385370051524</v>
+        <v>0.1977227772910089</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01947658281337178</v>
+        <v>0.02185574517575417</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2096526750.81869</v>
+        <v>2444042781.443721</v>
       </c>
       <c r="F83" t="n">
-        <v>0.127746726318647</v>
+        <v>0.120357454880153</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03444114733224663</v>
+        <v>0.03397667935767559</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2088582539.873302</v>
+        <v>1985722578.338608</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1051521722858716</v>
+        <v>0.1173787672274281</v>
       </c>
       <c r="G84" t="n">
-        <v>0.048085264183419</v>
+        <v>0.03311950171551378</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3441642432.727905</v>
+        <v>2845694910.445517</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1211410908701221</v>
+        <v>0.1672917689321324</v>
       </c>
       <c r="G85" t="n">
-        <v>0.037345156597995</v>
+        <v>0.0431427118635444</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1821949530.227789</v>
+        <v>1932394150.392946</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1261149714433047</v>
+        <v>0.1090088994355961</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02062541437770035</v>
+        <v>0.01946775171517105</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>915852537.2923337</v>
+        <v>1254443942.827435</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1407976053784424</v>
+        <v>0.1603122003728117</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03125723215003894</v>
+        <v>0.03445267282814949</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2420828036.624934</v>
+        <v>3253364040.144928</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1754781707628364</v>
+        <v>0.118432753738691</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03123903853182965</v>
+        <v>0.03132239041942389</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3115929554.142889</v>
+        <v>3436597009.047876</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1122753184564589</v>
+        <v>0.1271502481010382</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03827406005563695</v>
+        <v>0.02702153530966807</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1367426047.950472</v>
+        <v>2120476842.482939</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1004857872883919</v>
+        <v>0.1005234960995696</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05321328818199142</v>
+        <v>0.05292341488618624</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1784643250.158996</v>
+        <v>1985474460.709514</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1873967824820534</v>
+        <v>0.1664011414142343</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04083965757990751</v>
+        <v>0.05993054427317324</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2932102390.611385</v>
+        <v>2342463545.174397</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07238401481497704</v>
+        <v>0.0836097966182061</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0441293863760782</v>
+        <v>0.0354684474747996</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4632538691.007355</v>
+        <v>3809185696.762977</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09530218021656574</v>
+        <v>0.129294993447817</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04250172080051791</v>
+        <v>0.03587228502494628</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2269765034.671743</v>
+        <v>2028281557.159073</v>
       </c>
       <c r="F94" t="n">
-        <v>0.139801081330834</v>
+        <v>0.1139658458083459</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03232717113849743</v>
+        <v>0.03280192033177632</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3017546596.865909</v>
+        <v>3224123806.487374</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1352944133164829</v>
+        <v>0.1220587685083504</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03238614396632062</v>
+        <v>0.04800663468141884</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1646449416.30544</v>
+        <v>2067398182.261612</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08809746037627326</v>
+        <v>0.09210756451420879</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04318857272891548</v>
+        <v>0.04677089655005288</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3420537415.951905</v>
+        <v>3595735568.381936</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1453146420092989</v>
+        <v>0.1220441906082339</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0186082507315279</v>
+        <v>0.01776375078666982</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3819775336.767658</v>
+        <v>2726412697.934434</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1192912739179122</v>
+        <v>0.1121475944410986</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02217497343269957</v>
+        <v>0.02787799984359527</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2491043881.26107</v>
+        <v>2289787003.782578</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1211482498255643</v>
+        <v>0.1085479441107136</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02551242287124291</v>
+        <v>0.02209246292998149</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3967546310.967214</v>
+        <v>4173491314.150138</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1756760171971442</v>
+        <v>0.1307367182753646</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01722464197375595</v>
+        <v>0.0191893934569485</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2918176546.800681</v>
+        <v>3274148190.77986</v>
       </c>
       <c r="F101" t="n">
-        <v>0.178659309225165</v>
+        <v>0.1483524287091479</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04051522782355585</v>
+        <v>0.05268502782675617</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_471.xlsx
+++ b/output/fit_clients/fit_round_471.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1871091499.647945</v>
+        <v>1622568133.269839</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08505401899935829</v>
+        <v>0.0910161473274759</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04007773716386109</v>
+        <v>0.03856881972107633</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1634287108.029028</v>
+        <v>2254267783.011709</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1810470809129897</v>
+        <v>0.1735220938272092</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03402536505211105</v>
+        <v>0.03600936003852601</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5097704594.548342</v>
+        <v>3559591433.481312</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1308667028428567</v>
+        <v>0.1208744449379835</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0363050791101252</v>
+        <v>0.0353519076504497</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>238</v>
+      </c>
+      <c r="J4" t="n">
+        <v>469</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3628247389.286412</v>
+        <v>4231559086.938357</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06814418425374394</v>
+        <v>0.1078996349854044</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04494467491579853</v>
+        <v>0.05008510187551859</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>198</v>
+      </c>
+      <c r="J5" t="n">
+        <v>471</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1888081238.249601</v>
+        <v>2829910420.271572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1124927875713961</v>
+        <v>0.09007744556820922</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03447711910413549</v>
+        <v>0.03665138463989293</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2008041834.566253</v>
+        <v>2400507244.240313</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08364546722351614</v>
+        <v>0.08474760558848034</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03684992428897343</v>
+        <v>0.03842824804433739</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2710875861.563301</v>
+        <v>2934786785.710964</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2010307425072029</v>
+        <v>0.1408495818206985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03247417796289544</v>
+        <v>0.02281984787385113</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26.58038488179421</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1692942734.154667</v>
+        <v>2071990224.090543</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1744020232791597</v>
+        <v>0.175974381424739</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02625684954023174</v>
+        <v>0.03408066687402027</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5262000945.835629</v>
+        <v>5092964467.388132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1335049312770721</v>
+        <v>0.1644796913630477</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04101959576671936</v>
+        <v>0.05178844860673219</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>361</v>
+      </c>
+      <c r="J10" t="n">
+        <v>470</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30.62495460078581</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2821218381.152323</v>
+        <v>2824990119.024827</v>
       </c>
       <c r="F11" t="n">
-        <v>0.120684347184457</v>
+        <v>0.1894738821589184</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04958935888393997</v>
+        <v>0.04142845284972433</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>195</v>
+      </c>
+      <c r="J11" t="n">
+        <v>468</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2142219551.386126</v>
+        <v>3210612772.12526</v>
       </c>
       <c r="F12" t="n">
-        <v>0.176722388374586</v>
+        <v>0.1560896453610016</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04308928039230249</v>
+        <v>0.05281033046765072</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3297807289.97567</v>
+        <v>3249578700.269782</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07422112343701455</v>
+        <v>0.06680734303933644</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03054097765634873</v>
+        <v>0.02999914424441414</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>245</v>
+      </c>
+      <c r="J13" t="n">
+        <v>470</v>
+      </c>
+      <c r="K13" t="n">
+        <v>23.7970117076226</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2820978035.852788</v>
+        <v>2494090538.23383</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1843530028138613</v>
+        <v>0.1526231606151297</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02754439993469779</v>
+        <v>0.04034531344612339</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>108</v>
+      </c>
+      <c r="J14" t="n">
+        <v>470</v>
+      </c>
+      <c r="K14" t="n">
+        <v>22.15181181362486</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1671725033.183718</v>
+        <v>1116407584.602633</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08072529398695111</v>
+        <v>0.06969818459677968</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04469487174369056</v>
+        <v>0.0464531312964277</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2516446383.702871</v>
+        <v>2280178825.145982</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064010413542398</v>
+        <v>0.09268015022922363</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03345281315694956</v>
+        <v>0.03180013130272145</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4915346947.405422</v>
+        <v>5022428690.02885</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1438021437475759</v>
+        <v>0.1588192002943055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04403093706308105</v>
+        <v>0.03601149536794671</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>230</v>
+      </c>
+      <c r="J17" t="n">
+        <v>471</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3326305223.421208</v>
+        <v>2984790579.748963</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1747572167747243</v>
+        <v>0.1412239662370735</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03190741941856148</v>
+        <v>0.02480687521995758</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>127</v>
+      </c>
+      <c r="J18" t="n">
+        <v>470</v>
+      </c>
+      <c r="K18" t="n">
+        <v>28.93602645291087</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>853925685.5476543</v>
+        <v>1014951355.253427</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1754147549551668</v>
+        <v>0.1535011434063357</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02035985132051262</v>
+        <v>0.01987240090731049</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2174166847.606912</v>
+        <v>1914033491.785678</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1340612242441444</v>
+        <v>0.1474028236749347</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03105592322855302</v>
+        <v>0.03129531147211086</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2569076546.532443</v>
+        <v>2713123858.896333</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07194276506735564</v>
+        <v>0.09822340303637528</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02906899107307591</v>
+        <v>0.04609681189665633</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3194211506.031368</v>
+        <v>2753723984.201654</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1086025470895266</v>
+        <v>0.1351572814599064</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03610238151271725</v>
+        <v>0.04740109780273071</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>137</v>
+      </c>
+      <c r="J22" t="n">
+        <v>468</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1071397726.33808</v>
+        <v>1264594143.31569</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1671064999775816</v>
+        <v>0.1363654109513738</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0443870085146551</v>
+        <v>0.04159180662119008</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3822548866.099278</v>
+        <v>3654450604.949226</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1071761620921717</v>
+        <v>0.1228760884136365</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03686217333911303</v>
+        <v>0.0231747022277195</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>150</v>
+      </c>
+      <c r="J24" t="n">
+        <v>469</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1207011777.595213</v>
+        <v>1305400085.348819</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08382264153928286</v>
+        <v>0.08606013489480262</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02883151911208363</v>
+        <v>0.03050567525196081</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1147160972.194419</v>
+        <v>976872359.5081346</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08671229999460098</v>
+        <v>0.1116829719438607</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0287291366980384</v>
+        <v>0.02433962745402261</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3194976002.473906</v>
+        <v>4018438926.602463</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09987979019774154</v>
+        <v>0.1299049564909334</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02221330797788279</v>
+        <v>0.01825586424385826</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>207</v>
+      </c>
+      <c r="J27" t="n">
+        <v>471</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2624765739.423913</v>
+        <v>3882650624.803893</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1286774842189926</v>
+        <v>0.1273282351535664</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03927185018121897</v>
+        <v>0.0466438538195474</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>116</v>
+      </c>
+      <c r="J28" t="n">
+        <v>471</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4404146217.35199</v>
+        <v>3927180668.199615</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09405474789630684</v>
+        <v>0.1328757755969878</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03828099079480021</v>
+        <v>0.04504663284593703</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>376</v>
+      </c>
+      <c r="J29" t="n">
+        <v>471</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2122081322.669042</v>
+        <v>1927879639.303942</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1249516177125178</v>
+        <v>0.09313185373983404</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03539855273503254</v>
+        <v>0.03757205508231153</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1106743796.521714</v>
+        <v>1333390947.958093</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09321128196118553</v>
+        <v>0.06969145575300015</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03763883788954067</v>
+        <v>0.05167710196436945</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1577339333.265053</v>
+        <v>1601070270.042691</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1035578477237086</v>
+        <v>0.07666525317542651</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03372819142683717</v>
+        <v>0.02658147013187921</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2701145799.275192</v>
+        <v>2422945241.304244</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1670866292266839</v>
+        <v>0.1520513777715109</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04363902688924778</v>
+        <v>0.04206615889549031</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1410817292.989588</v>
+        <v>1057168534.697722</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1063801134367746</v>
+        <v>0.1130513737974461</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02600975270569759</v>
+        <v>0.02612981806057374</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1280913039.472296</v>
+        <v>1015669132.986123</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09900205060128876</v>
+        <v>0.1152031045847884</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0374039972745331</v>
+        <v>0.04120947513611856</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2799235556.964338</v>
+        <v>1956648567.591042</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1308113868609052</v>
+        <v>0.1330217123149849</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02088822436060954</v>
+        <v>0.01774363935912725</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2863219736.078265</v>
+        <v>2116498345.97758</v>
       </c>
       <c r="F37" t="n">
-        <v>0.097937822510081</v>
+        <v>0.09163383402180039</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04041262260831874</v>
+        <v>0.03450672075105343</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2096649804.973016</v>
+        <v>1324104517.932739</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1221740299092518</v>
+        <v>0.1164126144707281</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02553431203820242</v>
+        <v>0.03857076189581354</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1863057544.024097</v>
+        <v>1441860001.669992</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1479832091931613</v>
+        <v>0.1630152925171196</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0301129472735957</v>
+        <v>0.02653465806317604</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1251414115.397491</v>
+        <v>1329467779.815509</v>
       </c>
       <c r="F40" t="n">
-        <v>0.16281755185131</v>
+        <v>0.1551547927002432</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05919315510338218</v>
+        <v>0.04069545202650297</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2249327110.093363</v>
+        <v>2600850027.921032</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1316658228194572</v>
+        <v>0.1532112874839121</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04718396749751051</v>
+        <v>0.04019499611792477</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3411996588.892776</v>
+        <v>2796122792.332644</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08952730100558291</v>
+        <v>0.1053835541459083</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0322506574974341</v>
+        <v>0.02926243123161342</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>206</v>
+      </c>
+      <c r="J42" t="n">
+        <v>470</v>
+      </c>
+      <c r="K42" t="n">
+        <v>21.25809283613379</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2915892779.788863</v>
+        <v>3056265587.301012</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1387306644547036</v>
+        <v>0.1544238679742713</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01753631729606211</v>
+        <v>0.02203316701606599</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1472810126.165803</v>
+        <v>1449418107.97735</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07877847844395917</v>
+        <v>0.08225513774381304</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02343475288408566</v>
+        <v>0.03136515608443342</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1705235055.402948</v>
+        <v>1617160505.298597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1459339612789185</v>
+        <v>0.1944173514427771</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03984779856008364</v>
+        <v>0.05075337104045524</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5195118568.610044</v>
+        <v>3703195729.968472</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1584926484879873</v>
+        <v>0.1522668209800836</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05615344649376211</v>
+        <v>0.04089005259433275</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>278</v>
+      </c>
+      <c r="J46" t="n">
+        <v>471</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3635799844.961533</v>
+        <v>4294828059.393852</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1890172162248551</v>
+        <v>0.1538018815686898</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05435524997316673</v>
+        <v>0.04589542552858811</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>212</v>
+      </c>
+      <c r="J47" t="n">
+        <v>471</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4021021124.521745</v>
+        <v>4581411100.294131</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09622812027944648</v>
+        <v>0.07763772638258486</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02818041475705753</v>
+        <v>0.03816707648034191</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>236</v>
+      </c>
+      <c r="J48" t="n">
+        <v>470</v>
+      </c>
+      <c r="K48" t="n">
+        <v>32.02765798367965</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1281151721.699958</v>
+        <v>1597487454.715923</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1702490547975412</v>
+        <v>0.1444067923302401</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0407613673918548</v>
+        <v>0.04099122405562339</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2818755314.005672</v>
+        <v>3264701561.133227</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1238115848559661</v>
+        <v>0.158512844589931</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04769822894776269</v>
+        <v>0.04250052281829066</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>168</v>
+      </c>
+      <c r="J50" t="n">
+        <v>467</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1492547271.945298</v>
+        <v>1095102824.978321</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1508173444910807</v>
+        <v>0.1952236792232602</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04959580582099356</v>
+        <v>0.04971728080585124</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4787448787.935186</v>
+        <v>4649729087.97379</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1179023952288394</v>
+        <v>0.1004302268737397</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04349098152953526</v>
+        <v>0.04536533710203927</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>266</v>
+      </c>
+      <c r="J52" t="n">
+        <v>470</v>
+      </c>
+      <c r="K52" t="n">
+        <v>30.37018454150836</v>
       </c>
     </row>
     <row r="53">
@@ -1914,16 +2302,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3079699555.653485</v>
+        <v>3013009556.339749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2027905914647274</v>
+        <v>0.1265381440807077</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02152547762701637</v>
+        <v>0.02798254259400832</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>73</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="n">
+        <v>37.23901508162876</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4910587221.548905</v>
+        <v>3961247437.401999</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1262906109524055</v>
+        <v>0.1467345417797501</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04656833259187127</v>
+        <v>0.04068314661919692</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>249</v>
+      </c>
+      <c r="J54" t="n">
+        <v>471</v>
+      </c>
+      <c r="K54" t="n">
+        <v>33.63052780418808</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3249779569.700246</v>
+        <v>4957368052.954916</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2156074232191022</v>
+        <v>0.1574659884199643</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0280057203570661</v>
+        <v>0.02242313501847014</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>232</v>
+      </c>
+      <c r="J55" t="n">
+        <v>471</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1401507368.362397</v>
+        <v>1706308421.031224</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1134157066920534</v>
+        <v>0.1600702957118623</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05421265750134446</v>
+        <v>0.0458032514457436</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2808896357.436521</v>
+        <v>4476229900.043587</v>
       </c>
       <c r="F57" t="n">
-        <v>0.116764120300287</v>
+        <v>0.167147402160912</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01998777758820726</v>
+        <v>0.0233756220206985</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>202</v>
+      </c>
+      <c r="J57" t="n">
+        <v>471</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1790095907.404441</v>
+        <v>1278604485.680394</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1751560736574877</v>
+        <v>0.1465650324601906</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03319883523653476</v>
+        <v>0.03481620019796065</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4200780498.423361</v>
+        <v>3388289044.734639</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1210818057230709</v>
+        <v>0.1185999185118887</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03829582341355904</v>
+        <v>0.03229546087426154</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>231</v>
+      </c>
+      <c r="J59" t="n">
+        <v>470</v>
+      </c>
+      <c r="K59" t="n">
+        <v>27.5073589184389</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3611160939.350222</v>
+        <v>3499246405.432559</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1993154268127368</v>
+        <v>0.1782713752938359</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03297512036502078</v>
+        <v>0.02083092501870816</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>91</v>
+      </c>
+      <c r="J60" t="n">
+        <v>465</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2800153798.448965</v>
+        <v>2482467242.236617</v>
       </c>
       <c r="F61" t="n">
-        <v>0.175805598080481</v>
+        <v>0.1160655016772466</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0243226974203574</v>
+        <v>0.0306299831056332</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1743829974.919173</v>
+        <v>2025838755.162172</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1557890748789416</v>
+        <v>0.1910551548241836</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04814188987449015</v>
+        <v>0.03438664227878649</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5288329053.668451</v>
+        <v>4467763148.896064</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1016941986922597</v>
+        <v>0.104931664124642</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04294842385284384</v>
+        <v>0.04381028545329978</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>236</v>
+      </c>
+      <c r="J63" t="n">
+        <v>470</v>
+      </c>
+      <c r="K63" t="n">
+        <v>31.9519433255091</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4735359150.844769</v>
+        <v>3877334860.634256</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1682685907066944</v>
+        <v>0.1454077187004104</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02215068190610353</v>
+        <v>0.02212325113524391</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>235</v>
+      </c>
+      <c r="J64" t="n">
+        <v>471</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3680656482.198857</v>
+        <v>3617073752.152215</v>
       </c>
       <c r="F65" t="n">
-        <v>0.157727317734341</v>
+        <v>0.1434481938480313</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02470509399460276</v>
+        <v>0.02339602888238113</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>333</v>
+      </c>
+      <c r="J65" t="n">
+        <v>469</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,17 +2765,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5248003771.192759</v>
+        <v>5544347042.605144</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1132131293574307</v>
+        <v>0.157220726609495</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0336694451775662</v>
+        <v>0.04274955984064308</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>232</v>
+      </c>
+      <c r="J66" t="n">
+        <v>471</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2847534154.342735</v>
+        <v>2413812366.410156</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07949455902931521</v>
+        <v>0.07109547559279528</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03573489214524406</v>
+        <v>0.04030297684498207</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4264104883.307014</v>
+        <v>5309073133.906528</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1098872794160376</v>
+        <v>0.1388584295643457</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04290564975526615</v>
+        <v>0.04311381621115115</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>256</v>
+      </c>
+      <c r="J68" t="n">
+        <v>471</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1685398749.845298</v>
+        <v>1961421014.710831</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1790415631232398</v>
+        <v>0.1836424390258211</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0494982481504762</v>
+        <v>0.04199836868207014</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2408935250.748925</v>
+        <v>2305204903.854249</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07388596938502304</v>
+        <v>0.1006888822295842</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04603932097645048</v>
+        <v>0.04193052199574283</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5571505875.617074</v>
+        <v>5120964947.042694</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1665752516263317</v>
+        <v>0.1781838697185215</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02383718639503214</v>
+        <v>0.02927074584191866</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>319</v>
+      </c>
+      <c r="J71" t="n">
+        <v>471</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1369763132.166065</v>
+        <v>1466683055.064179</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1060093685277698</v>
+        <v>0.08489332051785335</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04615701724754625</v>
+        <v>0.03867346443652157</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3004,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2595480049.356897</v>
+        <v>3159165389.276188</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1066112110858403</v>
+        <v>0.1129156924942979</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03219999628605705</v>
+        <v>0.04972366759503905</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>41</v>
+      </c>
+      <c r="J73" t="n">
+        <v>471</v>
+      </c>
+      <c r="K73" t="n">
+        <v>51.29949984767449</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3902914214.537483</v>
+        <v>3923227103.101297</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1556833731689747</v>
+        <v>0.1243583463219682</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03485532990076522</v>
+        <v>0.02571349295870497</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>138</v>
+      </c>
+      <c r="J74" t="n">
+        <v>471</v>
+      </c>
+      <c r="K74" t="n">
+        <v>42.92428727674254</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1989152079.627719</v>
+        <v>1992718544.337112</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1135211159058038</v>
+        <v>0.1017677404325486</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03763868932662281</v>
+        <v>0.02594310989031973</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4279169451.337892</v>
+        <v>3257427459.28181</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1022477176111438</v>
+        <v>0.08417581496832797</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03424991842029274</v>
+        <v>0.02349859115060623</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>225</v>
+      </c>
+      <c r="J76" t="n">
+        <v>470</v>
+      </c>
+      <c r="K76" t="n">
+        <v>25.54581967493217</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2237051526.584036</v>
+        <v>1678745106.200754</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1189667176775435</v>
+        <v>0.1329739242182016</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02160811327872478</v>
+        <v>0.02643120324055618</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4641158964.916985</v>
+        <v>4405039687.318416</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1195769712824776</v>
+        <v>0.08939926707935231</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04805660811486281</v>
+        <v>0.04337176151527215</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>234</v>
+      </c>
+      <c r="J78" t="n">
+        <v>470</v>
+      </c>
+      <c r="K78" t="n">
+        <v>31.92759174376095</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1675040453.932244</v>
+        <v>1606179403.759299</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1512844070805832</v>
+        <v>0.1193919321638604</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02513988850925814</v>
+        <v>0.03727257036120016</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4848863223.077241</v>
+        <v>5114734084.969627</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07601246554286159</v>
+        <v>0.07576480391622958</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02585717351537207</v>
+        <v>0.02660209799047943</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>230</v>
+      </c>
+      <c r="J80" t="n">
+        <v>470</v>
+      </c>
+      <c r="K80" t="n">
+        <v>29.06246432936565</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4811225867.599611</v>
+        <v>4018851470.581903</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09376318544432886</v>
+        <v>0.1350236053062221</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03071376842559576</v>
+        <v>0.03034266453488863</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>219</v>
+      </c>
+      <c r="J81" t="n">
+        <v>470</v>
+      </c>
+      <c r="K81" t="n">
+        <v>31.32097590511121</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3807809451.768411</v>
+        <v>3593751970.803002</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1977227772910089</v>
+        <v>0.1704500843624753</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02185574517575417</v>
+        <v>0.02113620737481787</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>311</v>
+      </c>
+      <c r="J82" t="n">
+        <v>469</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2444042781.443721</v>
+        <v>2249106123.33537</v>
       </c>
       <c r="F83" t="n">
-        <v>0.120357454880153</v>
+        <v>0.101564686479103</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03397667935767559</v>
+        <v>0.03787872196292742</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1985722578.338608</v>
+        <v>2497943617.187432</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1173787672274281</v>
+        <v>0.07973707132154439</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03311950171551378</v>
+        <v>0.03372951095851779</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2845694910.445517</v>
+        <v>3097171764.996072</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1672917689321324</v>
+        <v>0.1771763868611387</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0431427118635444</v>
+        <v>0.04266284389209454</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1932394150.392946</v>
+        <v>1937374123.153182</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1090088994355961</v>
+        <v>0.1148633458629804</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01946775171517105</v>
+        <v>0.01937445522252371</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1254443942.827435</v>
+        <v>913022813.8064097</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1603122003728117</v>
+        <v>0.1799750464301863</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03445267282814949</v>
+        <v>0.03236050451634528</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3547,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3253364040.144928</v>
+        <v>3672808144.521082</v>
       </c>
       <c r="F88" t="n">
-        <v>0.118432753738691</v>
+        <v>0.1449711736846864</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03132239041942389</v>
+        <v>0.03814183655286103</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>62</v>
+      </c>
+      <c r="J88" t="n">
+        <v>471</v>
+      </c>
+      <c r="K88" t="n">
+        <v>65.3081525714327</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3436597009.047876</v>
+        <v>3127697129.017076</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1271502481010382</v>
+        <v>0.1458348139155266</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02702153530966807</v>
+        <v>0.03541427449244993</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2120476842.482939</v>
+        <v>1566456395.89435</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1005234960995696</v>
+        <v>0.1041947434286119</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05292341488618624</v>
+        <v>0.04747735972972035</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1985474460.709514</v>
+        <v>1615454281.07705</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1664011414142343</v>
+        <v>0.1767326208421791</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05993054427317324</v>
+        <v>0.040304282520299</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2342463545.174397</v>
+        <v>2476631015.335803</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0836097966182061</v>
+        <v>0.08142164762648652</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0354684474747996</v>
+        <v>0.04477006995401863</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3809185696.762977</v>
+        <v>3750104514.727511</v>
       </c>
       <c r="F93" t="n">
-        <v>0.129294993447817</v>
+        <v>0.1285351823430921</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03587228502494628</v>
+        <v>0.03863387397075788</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>226</v>
+      </c>
+      <c r="J93" t="n">
+        <v>470</v>
+      </c>
+      <c r="K93" t="n">
+        <v>30.2882105840463</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2028281557.159073</v>
+        <v>2270496424.423816</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1139658458083459</v>
+        <v>0.1115590636781284</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03280192033177632</v>
+        <v>0.03574484672592624</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3224123806.487374</v>
+        <v>3063306131.900432</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1220587685083504</v>
+        <v>0.1324629382073737</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04800663468141884</v>
+        <v>0.05091177059721389</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2067398182.261612</v>
+        <v>1843490347.73613</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09210756451420879</v>
+        <v>0.1371005228252377</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04677089655005288</v>
+        <v>0.03219281973531771</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3595735568.381936</v>
+        <v>4025127039.218685</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1220441906082339</v>
+        <v>0.1716893377871347</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01776375078666982</v>
+        <v>0.02322386449877211</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>245</v>
+      </c>
+      <c r="J97" t="n">
+        <v>471</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2726412697.934434</v>
+        <v>3563486468.530674</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1121475944410986</v>
+        <v>0.1216913522915089</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02787799984359527</v>
+        <v>0.02118769565654864</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>117</v>
+      </c>
+      <c r="J98" t="n">
+        <v>464</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2289787003.782578</v>
+        <v>3279261857.793521</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1085479441107136</v>
+        <v>0.1047338751589117</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02209246292998149</v>
+        <v>0.02503653567401674</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4173491314.150138</v>
+        <v>3934897269.001485</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1307367182753646</v>
+        <v>0.1492060277909911</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0191893934569485</v>
+        <v>0.0247066510995128</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>220</v>
+      </c>
+      <c r="J100" t="n">
+        <v>471</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3274148190.77986</v>
+        <v>2955066367.071439</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1483524287091479</v>
+        <v>0.1357012931615324</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05268502782675617</v>
+        <v>0.04045336594736749</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
